--- a/biology/Médecine/Muscle_grand_rond/Muscle_grand_rond.xlsx
+++ b/biology/Médecine/Muscle_grand_rond/Muscle_grand_rond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle grand rond est un muscle profond postérieur de l'épaule.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle grand rond nait sur la face dorsale de l'angle inférieur de la scapula[1] dans la fosse infra-épineuse et sur les fascias qui le séparent des muscles petit rond et infra-épineux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle grand rond nait sur la face dorsale de l'angle inférieur de la scapula dans la fosse infra-épineuse et sur les fascias qui le séparent des muscles petit rond et infra-épineux.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle grand rond est oblique en haut, en avant et en dehors et se termine par un large tendon aplati.
 Le tendon est séparé de l'humérus par la bourse subtendineuse du muscle grand rond.
@@ -574,9 +590,11 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tendon terminal s’insère sur le bord médial du sillon intertuberculaire de l'humérus[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tendon terminal s’insère sur le bord médial du sillon intertuberculaire de l'humérus.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle grand rond est innervé par le nerf inférieur du muscle subscapulaire, branche collatérale du faisceau postérieur du plexus brachial.
 </t>
@@ -636,9 +656,11 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle grand rond est adducteur et rotateur médial du bras[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle grand rond est adducteur et rotateur médial du bras.
 Il est aussi extenseur accessoire du bras.
 </t>
         </is>
